--- a/report_co_so/CẦN THƠ 2024-06-01 - 2024-06-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-06-01 - 2024-06-30.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="DOANH SỐ CÁ NHÂN" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +456,20 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Số lần phụ phẫu 2</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>Doanh số thu nợ</t>
         </is>
@@ -491,6 +502,12 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -514,9 +531,15 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -542,9 +565,15 @@
         <v>18</v>
       </c>
       <c r="G4" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -573,6 +602,12 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>27200000</v>
       </c>
     </row>
@@ -603,6 +638,12 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -629,6 +670,12 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>12000000</v>
       </c>
     </row>
@@ -657,6 +704,12 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>22000000</v>
       </c>
     </row>
@@ -682,9 +735,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -713,6 +772,12 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>3000000</v>
       </c>
     </row>
@@ -738,10 +803,50 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>618100000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>511100000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>64200000</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +967,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13200000</v>
+        <v>16200000</v>
       </c>
     </row>
     <row r="11">
@@ -882,7 +987,674 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>161473000</v>
+        <v>164473000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Số lượng đơn</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>73000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1490000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06-04-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6750000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06-06-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>46000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1008000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06-07-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18500000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7610000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06-08-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06-09-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72900000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>63900000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>06-10-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>79000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>79000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4435000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06-11-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11640000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06-13-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>06-14-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06-15-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10200000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>06-16-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29500000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5810000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06-17-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83000000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20900000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>06-18-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4020000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>06-19-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>06-20-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10100000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06-21-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>39400000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39400000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4346000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>06-22-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06-23-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9400000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>06-24-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06-25-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06-26-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11800000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>06-27-2024</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06-28-2024</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7350000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>06-29-2024</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>06-30-2024</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22624000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>618100000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>582600000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>58</v>
+      </c>
+      <c r="E29" t="n">
+        <v>69200000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>164473000</v>
       </c>
     </row>
   </sheetData>
